--- a/data/league_data/spain/20/spain_possession.xlsx
+++ b/data/league_data/spain/20/spain_possession.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9FF689-0473-AA49-ADEA-8D86777BBA08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586773F5-C890-264A-BE34-9D4AA6475E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="594">
   <si>
     <t>Touches</t>
   </si>
@@ -1796,12 +1796,18 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2662,14 +2668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2703,7 +2709,7 @@
     <col min="32" max="32" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3579,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4947,7 +4953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5827,7 +5833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6219,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6609,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6901,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7585,12 +7591,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>593</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>31</v>
@@ -7683,7 +7689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7781,7 +7787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8173,7 +8179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8271,7 +8277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8467,7 +8473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8565,7 +8571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8761,7 +8767,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8957,7 +8963,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9153,7 +9159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9349,7 +9355,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9545,7 +9551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9643,7 +9649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9741,7 +9747,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9937,7 +9943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10035,7 +10041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10231,7 +10237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10329,7 +10335,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10427,7 +10433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10623,7 +10629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10721,7 +10727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10819,7 +10825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10917,7 +10923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -11113,7 +11119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11309,7 +11315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11407,7 +11413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11505,7 +11511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11603,7 +11609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11701,7 +11707,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11799,7 +11805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11897,7 +11903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11995,7 +12001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12191,7 +12197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -12289,7 +12295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12387,7 +12393,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12485,7 +12491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12583,7 +12589,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12679,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12777,7 +12783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12875,7 +12881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -13069,7 +13075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -13167,7 +13173,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -13265,7 +13271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13363,7 +13369,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13461,7 +13467,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13559,7 +13565,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13657,7 +13663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13755,7 +13761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13853,7 +13859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13949,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -14047,7 +14053,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -14145,7 +14151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -14243,7 +14249,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -14341,7 +14347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14439,7 +14445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14537,7 +14543,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14635,7 +14641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14733,7 +14739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14831,7 +14837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14929,7 +14935,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -15025,7 +15031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -15123,7 +15129,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -15221,7 +15227,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -15319,7 +15325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15515,7 +15521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15613,7 +15619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15711,7 +15717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15809,7 +15815,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15907,7 +15913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -16005,7 +16011,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -16103,7 +16109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -16201,7 +16207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -16299,7 +16305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -16397,7 +16403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -16495,7 +16501,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -16593,7 +16599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16691,7 +16697,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16789,7 +16795,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16887,7 +16893,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16985,7 +16991,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -17083,7 +17089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -17181,7 +17187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -17279,7 +17285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -17377,7 +17383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -17475,7 +17481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -17573,7 +17579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -17669,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -17767,7 +17773,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -17865,7 +17871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17963,7 +17969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -18061,7 +18067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -18159,7 +18165,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -18257,7 +18263,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -18355,7 +18361,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="161" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -18453,7 +18459,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -18551,7 +18557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -18649,7 +18655,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -18747,7 +18753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -18845,7 +18851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -18943,7 +18949,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -19041,7 +19047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -19139,7 +19145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -19237,7 +19243,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -19335,7 +19341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -19433,7 +19439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -19531,7 +19537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -19629,7 +19635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -19727,7 +19733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -19825,7 +19831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -19923,7 +19929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -20021,7 +20027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -20119,7 +20125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -20217,7 +20223,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -20315,7 +20321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -20413,7 +20419,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -20511,7 +20517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -20609,7 +20615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -20707,7 +20713,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -20805,7 +20811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -20903,7 +20909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -21001,7 +21007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -21099,7 +21105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -21197,7 +21203,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -21295,7 +21301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -21393,7 +21399,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -21491,7 +21497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -21589,7 +21595,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="194" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -21687,7 +21693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -21785,7 +21791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -21883,7 +21889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -21981,7 +21987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -22079,7 +22085,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="199" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -22177,7 +22183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -22275,7 +22281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -22373,7 +22379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -22471,7 +22477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="203" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -22569,7 +22575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -22667,7 +22673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -22765,7 +22771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -22863,7 +22869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -22961,7 +22967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -23059,7 +23065,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="209" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -23157,7 +23163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -23255,7 +23261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -23353,7 +23359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="212" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -23451,7 +23457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -23549,7 +23555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="214" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -23647,7 +23653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -23745,7 +23751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -23843,7 +23849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="217" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -23941,7 +23947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -24039,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -24137,7 +24143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -24235,7 +24241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="221" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -24333,7 +24339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="222" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -24431,7 +24437,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -24529,7 +24535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -24627,7 +24633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -24725,7 +24731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -24823,7 +24829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="227" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -24921,7 +24927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -25019,7 +25025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -25117,7 +25123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -25215,7 +25221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -25313,7 +25319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -25411,7 +25417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -25509,7 +25515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -25607,7 +25613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -25705,7 +25711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -25803,7 +25809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -25901,7 +25907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -25999,7 +26005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -26097,7 +26103,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="240" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -26195,7 +26201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="241" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -26293,7 +26299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -26391,7 +26397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -26489,7 +26495,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="244" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -26587,7 +26593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="245" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -26683,7 +26689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -26781,7 +26787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -26879,7 +26885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -26977,7 +26983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -27073,7 +27079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -27171,7 +27177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="251" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -27269,7 +27275,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -27367,7 +27373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -27465,7 +27471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="254" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -27563,7 +27569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -27661,7 +27667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -27759,7 +27765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -27857,7 +27863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -27955,7 +27961,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="259" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -28053,7 +28059,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="260" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -28151,7 +28157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -28249,7 +28255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -28347,7 +28353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -28445,7 +28451,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="264" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -28543,7 +28549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -28641,7 +28647,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="266" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -28739,7 +28745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -28837,7 +28843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -28933,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -29031,7 +29037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -29129,7 +29135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="271" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -29227,7 +29233,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="272" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -29325,7 +29331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -29423,7 +29429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -29521,7 +29527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -29619,7 +29625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -29717,7 +29723,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="277" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -29815,7 +29821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -29913,7 +29919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -30011,7 +30017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="280" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -30109,7 +30115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -30207,7 +30213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="282" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -30305,7 +30311,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="283" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -30403,7 +30409,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="284" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -30501,7 +30507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -30599,7 +30605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -30697,7 +30703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="287" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -30795,7 +30801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -30893,7 +30899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -30991,7 +30997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="290" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -31089,7 +31095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="291" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -31187,7 +31193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -31285,7 +31291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -31383,7 +31389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -31481,7 +31487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="295" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -31579,7 +31585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -31677,7 +31683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -31775,7 +31781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -31873,7 +31879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -31971,7 +31977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -32069,7 +32075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="301" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -32167,7 +32173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -32265,7 +32271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="303" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -32363,7 +32369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -32461,7 +32467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -32559,7 +32565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -32657,7 +32663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="307" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -32755,7 +32761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -32853,7 +32859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -32951,7 +32957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -33049,7 +33055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -33147,7 +33153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="312" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -33245,7 +33251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -33343,7 +33349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -33441,7 +33447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -33539,7 +33545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -33637,7 +33643,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -33735,7 +33741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -33833,7 +33839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -33929,7 +33935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -34027,7 +34033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -34125,7 +34131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -34223,7 +34229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -34319,7 +34325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -34417,7 +34423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -34515,7 +34521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -34613,7 +34619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -34711,7 +34717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -34809,7 +34815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="329" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -34907,7 +34913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -35005,7 +35011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -35103,7 +35109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -35201,7 +35207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="333" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -35299,7 +35305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -35397,7 +35403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="335" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -35495,7 +35501,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="336" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -35593,7 +35599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="337" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -35691,7 +35697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="338" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -35789,7 +35795,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="339" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -35887,7 +35893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -35985,7 +35991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="341" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -36083,7 +36089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="342" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -36181,7 +36187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -36279,7 +36285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -36377,7 +36383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="345" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -36475,7 +36481,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="346" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -36573,7 +36579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -36671,7 +36677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -36769,7 +36775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="349" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -36867,7 +36873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -36965,7 +36971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -37061,7 +37067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -37159,7 +37165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -37257,7 +37263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="354" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -37355,7 +37361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -37453,7 +37459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -37551,7 +37557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -37649,7 +37655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -37747,7 +37753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -37845,7 +37851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -37943,7 +37949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -38041,7 +38047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="362" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -38139,7 +38145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -38237,7 +38243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -38335,7 +38341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="365" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -38433,7 +38439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -38531,7 +38537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -38629,7 +38635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="368" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -38727,7 +38733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="369" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -38825,7 +38831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="370" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -38923,7 +38929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -39021,7 +39027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -39119,7 +39125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -39217,7 +39223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="374" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -39315,7 +39321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -39413,7 +39419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="376" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -39511,7 +39517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -39609,7 +39615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -39707,7 +39713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -39805,7 +39811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="380" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -39903,7 +39909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -40001,7 +40007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="382" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -40099,7 +40105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -40197,7 +40203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -40295,7 +40301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="385" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -40393,7 +40399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="386" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -40491,7 +40497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -40589,7 +40595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -40687,7 +40693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -40785,7 +40791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="390" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -40881,7 +40887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -40979,7 +40985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="392" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -41077,7 +41083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -41175,7 +41181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="394" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -41271,7 +41277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -41369,7 +41375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -41467,7 +41473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -41565,7 +41571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -41663,7 +41669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -41759,7 +41765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -41857,7 +41863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="401" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -41955,7 +41961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="402" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -42053,7 +42059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -42151,7 +42157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -42247,7 +42253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -42345,7 +42351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -42443,7 +42449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -42541,7 +42547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -42639,7 +42645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -42737,7 +42743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -42835,12 +42841,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="411" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>283</v>
+        <v>592</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>31</v>
@@ -42933,7 +42939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -43031,7 +43037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="413" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -43129,7 +43135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -43225,7 +43231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -43323,7 +43329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -43421,7 +43427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="417" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -43519,7 +43525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="418" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -43617,7 +43623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="419" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -43715,7 +43721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -43813,7 +43819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -43911,7 +43917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="422" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -44009,7 +44015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -44107,7 +44113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -44203,7 +44209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -44301,7 +44307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -44397,7 +44403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -44495,7 +44501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -44593,7 +44599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -44689,7 +44695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -44787,7 +44793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -44885,7 +44891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -44981,7 +44987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -45079,7 +45085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -45175,7 +45181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -45273,7 +45279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -45371,7 +45377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -45469,7 +45475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -45567,7 +45573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -45665,7 +45671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -45763,7 +45769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -45861,7 +45867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -45959,7 +45965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -46057,7 +46063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -46155,7 +46161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -46253,7 +46259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -46349,7 +46355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -46445,7 +46451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -46543,7 +46549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -46639,7 +46645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -46735,7 +46741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -46831,7 +46837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -46929,7 +46935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -47027,7 +47033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -47125,7 +47131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -47223,7 +47229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -47321,7 +47327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -47419,7 +47425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -47515,7 +47521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -47613,7 +47619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -47709,7 +47715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -47807,7 +47813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="462" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -47905,7 +47911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -48003,7 +48009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -48101,7 +48107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -48197,7 +48203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -48295,7 +48301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -48393,7 +48399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -48491,7 +48497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -48589,7 +48595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -48687,7 +48693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -48783,7 +48789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -48881,7 +48887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -48979,7 +48985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -49077,7 +49083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -49175,7 +49181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -49273,7 +49279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -49371,7 +49377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -49467,7 +49473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -49565,7 +49571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -49661,7 +49667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -49759,7 +49765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -49855,7 +49861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -49951,7 +49957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -50047,7 +50053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -50143,7 +50149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -50241,7 +50247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -50337,7 +50343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -50435,7 +50441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -50533,7 +50539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -50631,7 +50637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -50729,7 +50735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -50827,7 +50833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -50925,7 +50931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -51023,7 +51029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -51121,7 +51127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -51219,7 +51225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -51317,7 +51323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -51415,7 +51421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -51513,7 +51519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -51611,7 +51617,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:32" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/20/spain_possession.xlsx
+++ b/data/league_data/spain/20/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586773F5-C890-264A-BE34-9D4AA6475E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B2610-500A-F444-81C1-0B30D408F381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="595">
   <si>
     <t>Touches</t>
   </si>
@@ -1108,9 +1108,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1802,6 +1799,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2671,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7596,7 +7599,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>31</v>
@@ -28750,7 +28753,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>79</v>
@@ -28848,7 +28851,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>31</v>
@@ -28944,7 +28947,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>31</v>
@@ -29042,7 +29045,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>79</v>
@@ -29140,7 +29143,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>31</v>
@@ -29238,7 +29241,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>31</v>
@@ -29336,7 +29339,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>79</v>
@@ -29434,7 +29437,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>111</v>
@@ -29532,7 +29535,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>118</v>
@@ -29630,7 +29633,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>69</v>
@@ -29728,7 +29731,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>31</v>
@@ -29826,7 +29829,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>31</v>
@@ -29924,7 +29927,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>347</v>
@@ -30022,7 +30025,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>31</v>
@@ -30120,13 +30123,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>130</v>
@@ -30218,7 +30221,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>31</v>
@@ -30316,7 +30319,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>118</v>
@@ -30414,7 +30417,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>64</v>
@@ -30512,7 +30515,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>31</v>
@@ -30610,7 +30613,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>31</v>
@@ -30708,7 +30711,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>118</v>
@@ -30806,7 +30809,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>31</v>
@@ -30904,7 +30907,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>31</v>
@@ -31002,7 +31005,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>31</v>
@@ -31100,7 +31103,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>79</v>
@@ -31198,7 +31201,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>79</v>
@@ -31296,7 +31299,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>31</v>
@@ -31394,7 +31397,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>87</v>
@@ -31492,7 +31495,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>31</v>
@@ -31590,7 +31593,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>31</v>
@@ -31688,7 +31691,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>114</v>
@@ -31786,7 +31789,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>118</v>
@@ -31884,7 +31887,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>72</v>
@@ -31982,7 +31985,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>31</v>
@@ -32080,7 +32083,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>118</v>
@@ -32178,10 +32181,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>91</v>
@@ -32276,7 +32279,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>31</v>
@@ -32374,7 +32377,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>31</v>
@@ -32472,7 +32475,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>212</v>
@@ -32570,7 +32573,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>87</v>
@@ -32668,7 +32671,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>31</v>
@@ -32766,7 +32769,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>31</v>
@@ -32864,7 +32867,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>31</v>
@@ -32962,7 +32965,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>31</v>
@@ -33060,13 +33063,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>53</v>
@@ -33158,7 +33161,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>79</v>
@@ -33256,7 +33259,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>118</v>
@@ -33354,7 +33357,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>31</v>
@@ -33452,7 +33455,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>31</v>
@@ -33550,7 +33553,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>79</v>
@@ -33746,7 +33749,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>31</v>
@@ -33844,7 +33847,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>31</v>
@@ -33940,7 +33943,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>159</v>
@@ -34038,7 +34041,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>31</v>
@@ -34136,7 +34139,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>31</v>
@@ -34234,7 +34237,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>31</v>
@@ -34330,7 +34333,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>31</v>
@@ -34428,7 +34431,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>72</v>
@@ -34526,7 +34529,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>31</v>
@@ -34624,7 +34627,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>118</v>
@@ -34722,7 +34725,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>31</v>
@@ -34820,10 +34823,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>61</v>
@@ -34918,7 +34921,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>31</v>
@@ -35016,7 +35019,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>72</v>
@@ -35114,7 +35117,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>31</v>
@@ -35212,7 +35215,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>69</v>
@@ -35310,7 +35313,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>31</v>
@@ -35408,7 +35411,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>139</v>
@@ -35506,7 +35509,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>31</v>
@@ -35604,7 +35607,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>31</v>
@@ -35702,7 +35705,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>31</v>
@@ -35800,7 +35803,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>77</v>
@@ -35898,7 +35901,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>31</v>
@@ -35996,7 +35999,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>31</v>
@@ -36094,7 +36097,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>31</v>
@@ -36192,7 +36195,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>69</v>
@@ -36290,7 +36293,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>31</v>
@@ -36388,7 +36391,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>31</v>
@@ -36486,7 +36489,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>77</v>
@@ -36584,7 +36587,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>64</v>
@@ -36682,7 +36685,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>31</v>
@@ -36780,7 +36783,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>31</v>
@@ -36976,7 +36979,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>31</v>
@@ -37072,7 +37075,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>64</v>
@@ -37170,7 +37173,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>31</v>
@@ -37268,7 +37271,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>31</v>
@@ -37366,7 +37369,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>72</v>
@@ -37464,7 +37467,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>31</v>
@@ -37562,10 +37565,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>38</v>
@@ -37660,10 +37663,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>41</v>
@@ -37758,7 +37761,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>31</v>
@@ -37856,7 +37859,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>31</v>
@@ -37954,7 +37957,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>31</v>
@@ -38052,7 +38055,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>31</v>
@@ -38150,7 +38153,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>31</v>
@@ -38248,7 +38251,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>31</v>
@@ -38346,7 +38349,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>31</v>
@@ -38444,7 +38447,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>133</v>
@@ -38542,7 +38545,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>31</v>
@@ -38640,7 +38643,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>31</v>
@@ -38738,7 +38741,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>212</v>
@@ -38836,7 +38839,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>31</v>
@@ -38934,7 +38937,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>31</v>
@@ -39032,7 +39035,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>72</v>
@@ -39130,7 +39133,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>69</v>
@@ -39228,7 +39231,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>31</v>
@@ -39326,7 +39329,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>87</v>
@@ -39424,7 +39427,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>31</v>
@@ -39522,13 +39525,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>94</v>
@@ -39620,7 +39623,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>214</v>
@@ -39718,7 +39721,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>79</v>
@@ -39816,7 +39819,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>249</v>
@@ -39914,7 +39917,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>118</v>
@@ -40012,7 +40015,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>31</v>
@@ -40110,7 +40113,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>31</v>
@@ -40208,7 +40211,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>31</v>
@@ -40306,7 +40309,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>77</v>
@@ -40404,7 +40407,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>31</v>
@@ -40502,7 +40505,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>31</v>
@@ -40600,13 +40603,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>94</v>
@@ -40698,7 +40701,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>226</v>
@@ -40796,7 +40799,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>31</v>
@@ -40892,7 +40895,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>31</v>
@@ -40990,7 +40993,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>31</v>
@@ -41088,7 +41091,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>31</v>
@@ -41186,7 +41189,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>347</v>
@@ -41282,7 +41285,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>31</v>
@@ -41380,7 +41383,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>31</v>
@@ -41478,10 +41481,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>38</v>
@@ -41576,7 +41579,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>31</v>
@@ -41674,7 +41677,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>31</v>
@@ -41770,7 +41773,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>31</v>
@@ -41868,7 +41871,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>31</v>
@@ -41966,7 +41969,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>31</v>
@@ -42064,7 +42067,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>31</v>
@@ -42162,7 +42165,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>31</v>
@@ -42258,7 +42261,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>31</v>
@@ -42356,10 +42359,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>38</v>
@@ -42454,7 +42457,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>118</v>
@@ -42552,7 +42555,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>114</v>
@@ -42650,10 +42653,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>61</v>
@@ -42748,7 +42751,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>31</v>
@@ -42846,7 +42849,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>31</v>
@@ -42944,7 +42947,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>64</v>
@@ -43042,7 +43045,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>69</v>
@@ -43140,7 +43143,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>31</v>
@@ -43236,7 +43239,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>212</v>
@@ -43334,7 +43337,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>31</v>
@@ -43530,7 +43533,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>31</v>
@@ -43628,7 +43631,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>347</v>
@@ -43726,7 +43729,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>31</v>
@@ -43824,7 +43827,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>31</v>
@@ -43922,7 +43925,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>31</v>
@@ -44020,7 +44023,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>31</v>
@@ -44118,13 +44121,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>42</v>
@@ -44214,7 +44217,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>31</v>
@@ -44312,7 +44315,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>72</v>
@@ -44408,13 +44411,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>70</v>
@@ -44506,7 +44509,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>72</v>
@@ -44604,7 +44607,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>31</v>
@@ -44700,10 +44703,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C430" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>91</v>
@@ -44798,7 +44801,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>31</v>
@@ -44896,7 +44899,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>133</v>
@@ -44992,7 +44995,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>114</v>
@@ -45090,7 +45093,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>31</v>
@@ -45186,7 +45189,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>31</v>
@@ -45284,7 +45287,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>31</v>
@@ -45382,7 +45385,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>31</v>
@@ -45480,7 +45483,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>234</v>
@@ -45578,7 +45581,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45676,7 +45679,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>31</v>
@@ -45774,7 +45777,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>31</v>
@@ -45872,7 +45875,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>31</v>
@@ -45970,7 +45973,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>31</v>
@@ -46068,7 +46071,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>31</v>
@@ -46166,7 +46169,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>31</v>
@@ -46264,7 +46267,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>31</v>
@@ -46360,7 +46363,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>77</v>
@@ -46456,7 +46459,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>72</v>
@@ -46554,7 +46557,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>31</v>
@@ -46650,7 +46653,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>31</v>
@@ -46746,7 +46749,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>31</v>
@@ -46842,7 +46845,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>69</v>
@@ -46940,7 +46943,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>31</v>
@@ -47038,7 +47041,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>31</v>
@@ -47136,7 +47139,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>31</v>
@@ -47234,7 +47237,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>31</v>
@@ -47332,7 +47335,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>31</v>
@@ -47430,7 +47433,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>31</v>
@@ -47624,7 +47627,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>31</v>
@@ -47720,7 +47723,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>31</v>
@@ -47818,7 +47821,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>77</v>
@@ -47916,13 +47919,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>70</v>
@@ -48014,7 +48017,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>31</v>
@@ -48112,7 +48115,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>31</v>
@@ -48208,7 +48211,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>212</v>
@@ -48306,7 +48309,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>31</v>
@@ -48404,7 +48407,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>31</v>
@@ -48502,7 +48505,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48600,7 +48603,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>31</v>
@@ -48698,7 +48701,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>118</v>
@@ -48794,7 +48797,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>79</v>
@@ -48892,7 +48895,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>159</v>
@@ -48990,7 +48993,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49088,7 +49091,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>347</v>
@@ -49284,7 +49287,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>31</v>
@@ -49382,7 +49385,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>31</v>
@@ -49478,7 +49481,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>31</v>
@@ -49576,7 +49579,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>347</v>
@@ -49672,7 +49675,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>31</v>
@@ -49770,7 +49773,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>31</v>
@@ -49866,7 +49869,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>79</v>
@@ -49962,7 +49965,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -50058,7 +50061,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>31</v>
@@ -50154,7 +50157,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>31</v>
@@ -50252,7 +50255,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>31</v>
@@ -50348,7 +50351,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>31</v>
@@ -50446,7 +50449,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>31</v>
@@ -50544,7 +50547,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50642,7 +50645,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>72</v>
@@ -50740,7 +50743,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>79</v>
@@ -50838,7 +50841,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>31</v>
@@ -50936,10 +50939,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>59</v>
@@ -51034,7 +51037,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51132,7 +51135,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>31</v>
@@ -51230,7 +51233,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>69</v>
@@ -51328,7 +51331,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>31</v>
@@ -51426,7 +51429,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>31</v>
@@ -51524,7 +51527,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>31</v>

--- a/data/league_data/spain/20/spain_possession.xlsx
+++ b/data/league_data/spain/20/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B2610-500A-F444-81C1-0B30D408F381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952B117-EDD9-7446-8C2A-BE50A14E3166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,9 +388,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1805,6 +1802,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2674,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7599,7 +7599,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>31</v>
@@ -7795,7 +7795,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>594</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>79</v>
@@ -7893,7 +7893,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>72</v>
@@ -7991,7 +7991,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>31</v>
@@ -8089,7 +8089,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>79</v>
@@ -8187,7 +8187,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>31</v>
@@ -8285,7 +8285,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>31</v>
@@ -8294,7 +8294,7 @@
         <v>41</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="4">
         <v>29</v>
@@ -8383,7 +8383,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>118</v>
@@ -8392,7 +8392,7 @@
         <v>38</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59" s="4">
         <v>25</v>
@@ -8481,7 +8481,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>31</v>
@@ -8579,10 +8579,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>41</v>
@@ -8677,7 +8677,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>31</v>
@@ -8775,7 +8775,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>31</v>
@@ -8873,7 +8873,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>118</v>
@@ -8971,7 +8971,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>31</v>
@@ -9069,13 +9069,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>96</v>
@@ -9167,7 +9167,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>111</v>
@@ -9265,7 +9265,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>31</v>
@@ -9363,7 +9363,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>31</v>
@@ -9461,7 +9461,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>31</v>
@@ -9470,7 +9470,7 @@
         <v>38</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F70" s="4">
         <v>27</v>
@@ -9559,7 +9559,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>31</v>
@@ -9568,7 +9568,7 @@
         <v>38</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" s="4">
         <v>23</v>
@@ -9657,7 +9657,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>31</v>
@@ -9755,7 +9755,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>79</v>
@@ -9853,7 +9853,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>31</v>
@@ -9951,7 +9951,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>52</v>
@@ -10049,7 +10049,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>31</v>
@@ -10058,7 +10058,7 @@
         <v>38</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="4">
         <v>29</v>
@@ -10147,7 +10147,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>31</v>
@@ -10245,7 +10245,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>72</v>
@@ -10343,7 +10343,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>31</v>
@@ -10441,10 +10441,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>38</v>
@@ -10539,7 +10539,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>69</v>
@@ -10637,7 +10637,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>77</v>
@@ -10735,10 +10735,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>59</v>
@@ -10833,10 +10833,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>38</v>
@@ -10931,7 +10931,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>31</v>
@@ -11029,7 +11029,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>31</v>
@@ -11127,7 +11127,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>72</v>
@@ -11225,7 +11225,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>111</v>
@@ -11323,7 +11323,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>31</v>
@@ -11421,10 +11421,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>59</v>
@@ -11519,13 +11519,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>62</v>
@@ -11617,7 +11617,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>31</v>
@@ -11715,7 +11715,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>31</v>
@@ -11813,7 +11813,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>111</v>
@@ -11911,7 +11911,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>31</v>
@@ -12009,7 +12009,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>31</v>
@@ -12018,7 +12018,7 @@
         <v>41</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F96" s="4">
         <v>30</v>
@@ -12107,7 +12107,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>31</v>
@@ -12205,7 +12205,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>31</v>
@@ -12303,7 +12303,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>118</v>
@@ -12401,13 +12401,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>55</v>
@@ -12499,7 +12499,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>31</v>
@@ -12597,7 +12597,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>31</v>
@@ -12606,7 +12606,7 @@
         <v>32</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F102" s="4">
         <v>35</v>
@@ -12693,7 +12693,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>31</v>
@@ -12791,7 +12791,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>72</v>
@@ -12889,13 +12889,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>33</v>
@@ -12987,7 +12987,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>72</v>
@@ -13083,7 +13083,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>79</v>
@@ -13181,7 +13181,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>31</v>
@@ -13279,10 +13279,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>61</v>
@@ -13377,7 +13377,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>31</v>
@@ -13475,7 +13475,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>31</v>
@@ -13573,7 +13573,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>31</v>
@@ -13671,10 +13671,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>59</v>
@@ -13769,7 +13769,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>31</v>
@@ -13867,7 +13867,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>31</v>
@@ -13876,7 +13876,7 @@
         <v>32</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115" s="4">
         <v>27</v>
@@ -13963,7 +13963,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>31</v>
@@ -14061,13 +14061,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>53</v>
@@ -14159,10 +14159,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>41</v>
@@ -14257,7 +14257,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>31</v>
@@ -14355,7 +14355,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>31</v>
@@ -14453,7 +14453,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>31</v>
@@ -14551,7 +14551,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>31</v>
@@ -14649,7 +14649,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>31</v>
@@ -14747,7 +14747,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>72</v>
@@ -14845,10 +14845,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>61</v>
@@ -14943,7 +14943,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>31</v>
@@ -15039,7 +15039,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>31</v>
@@ -15137,7 +15137,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>31</v>
@@ -15235,10 +15235,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>38</v>
@@ -15333,10 +15333,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>59</v>
@@ -15431,7 +15431,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>31</v>
@@ -15529,7 +15529,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>31</v>
@@ -15627,7 +15627,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>31</v>
@@ -15725,7 +15725,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>64</v>
@@ -15823,7 +15823,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>31</v>
@@ -15921,7 +15921,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>31</v>
@@ -16019,7 +16019,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>31</v>
@@ -16117,7 +16117,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>31</v>
@@ -16126,7 +16126,7 @@
         <v>59</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F138" s="4">
         <v>30</v>
@@ -16215,7 +16215,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>31</v>
@@ -16313,7 +16313,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>31</v>
@@ -16411,10 +16411,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>61</v>
@@ -16509,7 +16509,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>31</v>
@@ -16607,7 +16607,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>31</v>
@@ -16616,7 +16616,7 @@
         <v>59</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F143" s="4">
         <v>29</v>
@@ -16705,7 +16705,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>77</v>
@@ -16803,7 +16803,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>31</v>
@@ -16901,10 +16901,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>91</v>
@@ -16999,7 +16999,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>79</v>
@@ -17008,7 +17008,7 @@
         <v>38</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F147" s="4">
         <v>25</v>
@@ -17097,10 +17097,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>59</v>
@@ -17195,10 +17195,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>59</v>
@@ -17293,7 +17293,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>79</v>
@@ -17391,7 +17391,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>79</v>
@@ -17489,7 +17489,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>31</v>
@@ -17498,7 +17498,7 @@
         <v>38</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F152" s="4">
         <v>23</v>
@@ -17587,10 +17587,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>32</v>
@@ -17683,7 +17683,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>31</v>
@@ -17781,7 +17781,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>69</v>
@@ -17879,7 +17879,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>69</v>
@@ -17977,7 +17977,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>31</v>
@@ -18075,7 +18075,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>118</v>
@@ -18173,7 +18173,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>31</v>
@@ -18271,10 +18271,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>41</v>
@@ -18369,10 +18369,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>61</v>
@@ -18467,7 +18467,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>114</v>
@@ -18565,7 +18565,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>31</v>
@@ -18663,7 +18663,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>31</v>
@@ -18672,7 +18672,7 @@
         <v>59</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F164" s="4">
         <v>30</v>
@@ -18761,7 +18761,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>31</v>
@@ -18859,7 +18859,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>79</v>
@@ -18957,16 +18957,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F167" s="4">
         <v>22</v>
@@ -19055,10 +19055,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>59</v>
@@ -19153,7 +19153,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>77</v>
@@ -19251,7 +19251,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>31</v>
@@ -19349,7 +19349,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>64</v>
@@ -19447,10 +19447,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>38</v>
@@ -19545,10 +19545,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>38</v>
@@ -19643,7 +19643,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>31</v>
@@ -19652,7 +19652,7 @@
         <v>59</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F174" s="4">
         <v>33</v>
@@ -19741,10 +19741,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>59</v>
@@ -19839,7 +19839,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>31</v>
@@ -19937,10 +19937,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>61</v>
@@ -20035,7 +20035,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>31</v>
@@ -20133,7 +20133,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>31</v>
@@ -20231,16 +20231,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F180" s="4">
         <v>28</v>
@@ -20329,16 +20329,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F181" s="4">
         <v>25</v>
@@ -20427,7 +20427,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>31</v>
@@ -20525,7 +20525,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>31</v>
@@ -20623,7 +20623,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>31</v>
@@ -20632,7 +20632,7 @@
         <v>61</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F184" s="4">
         <v>21</v>
@@ -20721,16 +20721,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F185" s="4">
         <v>30</v>
@@ -20819,7 +20819,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>72</v>
@@ -20917,7 +20917,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>31</v>
@@ -21015,7 +21015,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>77</v>
@@ -21113,7 +21113,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>31</v>
@@ -21211,7 +21211,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>31</v>
@@ -21220,7 +21220,7 @@
         <v>38</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F190" s="4">
         <v>29</v>
@@ -21309,7 +21309,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>31</v>
@@ -21407,7 +21407,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>31</v>
@@ -21505,7 +21505,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>31</v>
@@ -21603,7 +21603,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>77</v>
@@ -21701,16 +21701,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F195" s="4">
         <v>25</v>
@@ -21799,7 +21799,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>31</v>
@@ -21897,16 +21897,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F197" s="4">
         <v>30</v>
@@ -21995,7 +21995,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>31</v>
@@ -22093,7 +22093,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>31</v>
@@ -22191,7 +22191,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>31</v>
@@ -22289,7 +22289,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>111</v>
@@ -22387,7 +22387,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>118</v>
@@ -22485,10 +22485,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>59</v>
@@ -22583,7 +22583,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>72</v>
@@ -22681,7 +22681,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>31</v>
@@ -22779,7 +22779,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>31</v>
@@ -22877,7 +22877,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>31</v>
@@ -22975,7 +22975,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>31</v>
@@ -23073,7 +23073,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>77</v>
@@ -23171,7 +23171,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>31</v>
@@ -23269,7 +23269,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>69</v>
@@ -23367,10 +23367,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>91</v>
@@ -23465,7 +23465,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>31</v>
@@ -23563,7 +23563,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>31</v>
@@ -23661,7 +23661,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>118</v>
@@ -23759,10 +23759,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>59</v>
@@ -23857,7 +23857,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>31</v>
@@ -23955,7 +23955,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>31</v>
@@ -24053,7 +24053,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>31</v>
@@ -24062,7 +24062,7 @@
         <v>59</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F219" s="4">
         <v>25</v>
@@ -24151,7 +24151,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>31</v>
@@ -24249,13 +24249,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>65</v>
@@ -24347,7 +24347,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>118</v>
@@ -24445,10 +24445,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>59</v>
@@ -24543,7 +24543,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>31</v>
@@ -24641,7 +24641,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>31</v>
@@ -24739,7 +24739,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>72</v>
@@ -24837,7 +24837,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>31</v>
@@ -24935,7 +24935,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>31</v>
@@ -25033,7 +25033,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>31</v>
@@ -25131,7 +25131,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>31</v>
@@ -25140,7 +25140,7 @@
         <v>59</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F230" s="4">
         <v>28</v>
@@ -25229,10 +25229,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>59</v>
@@ -25327,7 +25327,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>31</v>
@@ -25425,7 +25425,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>77</v>
@@ -25523,7 +25523,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>77</v>
@@ -25621,10 +25621,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>38</v>
@@ -25719,7 +25719,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>31</v>
@@ -25817,10 +25817,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>59</v>
@@ -25915,7 +25915,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>72</v>
@@ -26013,10 +26013,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>41</v>
@@ -26111,7 +26111,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>31</v>
@@ -26209,7 +26209,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>31</v>
@@ -26307,10 +26307,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>91</v>
@@ -26405,7 +26405,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>31</v>
@@ -26503,7 +26503,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>31</v>
@@ -26601,7 +26601,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>31</v>
@@ -26697,7 +26697,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>31</v>
@@ -26795,7 +26795,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>31</v>
@@ -26893,7 +26893,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>72</v>
@@ -26991,7 +26991,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>118</v>
@@ -27087,7 +27087,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>31</v>
@@ -27185,16 +27185,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F251" s="4">
         <v>22</v>
@@ -27283,10 +27283,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>38</v>
@@ -27381,7 +27381,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>31</v>
@@ -27479,7 +27479,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>31</v>
@@ -27577,16 +27577,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F255" s="4">
         <v>22</v>
@@ -27675,7 +27675,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>57</v>
@@ -27773,7 +27773,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>31</v>
@@ -27871,7 +27871,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>31</v>
@@ -27969,7 +27969,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>79</v>
@@ -28067,7 +28067,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>31</v>
@@ -28165,10 +28165,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>59</v>
@@ -28263,7 +28263,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>31</v>
@@ -28361,7 +28361,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>31</v>
@@ -28459,7 +28459,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>31</v>
@@ -28557,7 +28557,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>31</v>
@@ -28655,7 +28655,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>31</v>
@@ -28664,7 +28664,7 @@
         <v>59</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F266" s="4">
         <v>31</v>
@@ -28753,7 +28753,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>79</v>
@@ -28851,7 +28851,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>31</v>
@@ -28947,7 +28947,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>31</v>
@@ -29045,7 +29045,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>79</v>
@@ -29143,7 +29143,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>31</v>
@@ -29241,7 +29241,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>31</v>
@@ -29250,7 +29250,7 @@
         <v>59</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F272" s="4">
         <v>25</v>
@@ -29339,7 +29339,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>79</v>
@@ -29437,7 +29437,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>111</v>
@@ -29446,7 +29446,7 @@
         <v>59</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F274" s="4">
         <v>29</v>
@@ -29535,7 +29535,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>118</v>
@@ -29633,7 +29633,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>69</v>
@@ -29731,7 +29731,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>31</v>
@@ -29829,7 +29829,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>31</v>
@@ -29927,10 +29927,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>41</v>
@@ -30025,7 +30025,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>31</v>
@@ -30123,16 +30123,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F281" s="4">
         <v>23</v>
@@ -30221,7 +30221,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>31</v>
@@ -30319,7 +30319,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>118</v>
@@ -30328,7 +30328,7 @@
         <v>41</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F283" s="4">
         <v>28</v>
@@ -30417,7 +30417,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>64</v>
@@ -30515,7 +30515,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>31</v>
@@ -30613,7 +30613,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>31</v>
@@ -30711,7 +30711,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>118</v>
@@ -30720,7 +30720,7 @@
         <v>38</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F287" s="4">
         <v>25</v>
@@ -30809,7 +30809,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>31</v>
@@ -30907,7 +30907,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>31</v>
@@ -31005,7 +31005,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>31</v>
@@ -31103,7 +31103,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>79</v>
@@ -31201,7 +31201,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>79</v>
@@ -31299,7 +31299,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>31</v>
@@ -31397,7 +31397,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>87</v>
@@ -31495,7 +31495,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>31</v>
@@ -31593,7 +31593,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>31</v>
@@ -31691,7 +31691,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>114</v>
@@ -31789,7 +31789,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>118</v>
@@ -31887,7 +31887,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>72</v>
@@ -31985,7 +31985,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>31</v>
@@ -32083,7 +32083,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>118</v>
@@ -32181,10 +32181,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>91</v>
@@ -32279,13 +32279,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>55</v>
@@ -32377,7 +32377,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>31</v>
@@ -32386,7 +32386,7 @@
         <v>59</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F304" s="4">
         <v>26</v>
@@ -32475,10 +32475,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>38</v>
@@ -32573,7 +32573,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>87</v>
@@ -32671,7 +32671,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>31</v>
@@ -32769,7 +32769,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>31</v>
@@ -32867,7 +32867,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>31</v>
@@ -32965,13 +32965,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>67</v>
@@ -33063,13 +33063,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>53</v>
@@ -33161,7 +33161,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>79</v>
@@ -33259,7 +33259,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>118</v>
@@ -33357,7 +33357,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>31</v>
@@ -33455,7 +33455,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>31</v>
@@ -33553,7 +33553,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>79</v>
@@ -33657,7 +33657,7 @@
         <v>31</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>67</v>
@@ -33749,7 +33749,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>31</v>
@@ -33847,7 +33847,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>31</v>
@@ -33856,7 +33856,7 @@
         <v>32</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F319" s="4">
         <v>21</v>
@@ -33943,10 +33943,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>41</v>
@@ -34041,7 +34041,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>31</v>
@@ -34139,7 +34139,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>31</v>
@@ -34237,7 +34237,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>31</v>
@@ -34246,7 +34246,7 @@
         <v>38</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F323" s="4">
         <v>23</v>
@@ -34333,7 +34333,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>31</v>
@@ -34431,7 +34431,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>72</v>
@@ -34529,7 +34529,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>31</v>
@@ -34627,7 +34627,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>118</v>
@@ -34725,7 +34725,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>31</v>
@@ -34823,10 +34823,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>61</v>
@@ -34921,7 +34921,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>31</v>
@@ -35019,7 +35019,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>72</v>
@@ -35117,7 +35117,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>31</v>
@@ -35215,7 +35215,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>69</v>
@@ -35313,7 +35313,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>31</v>
@@ -35411,10 +35411,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>91</v>
@@ -35509,7 +35509,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>31</v>
@@ -35607,7 +35607,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>31</v>
@@ -35705,7 +35705,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>31</v>
@@ -35803,7 +35803,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>77</v>
@@ -35901,7 +35901,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>31</v>
@@ -35999,7 +35999,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>31</v>
@@ -36008,7 +36008,7 @@
         <v>61</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F341" s="4">
         <v>29</v>
@@ -36097,7 +36097,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>31</v>
@@ -36106,7 +36106,7 @@
         <v>38</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F342" s="4">
         <v>22</v>
@@ -36195,7 +36195,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>69</v>
@@ -36293,7 +36293,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>31</v>
@@ -36391,7 +36391,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>31</v>
@@ -36400,7 +36400,7 @@
         <v>61</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F345" s="4">
         <v>29</v>
@@ -36489,7 +36489,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>77</v>
@@ -36587,7 +36587,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>64</v>
@@ -36685,7 +36685,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>31</v>
@@ -36694,7 +36694,7 @@
         <v>41</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F348" s="4">
         <v>29</v>
@@ -36783,7 +36783,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>31</v>
@@ -36881,10 +36881,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>41</v>
@@ -36979,7 +36979,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>31</v>
@@ -36988,7 +36988,7 @@
         <v>32</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F351" s="4">
         <v>33</v>
@@ -37075,7 +37075,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>64</v>
@@ -37084,7 +37084,7 @@
         <v>59</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F352" s="4">
         <v>30</v>
@@ -37173,7 +37173,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>31</v>
@@ -37271,7 +37271,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>31</v>
@@ -37369,7 +37369,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>72</v>
@@ -37378,7 +37378,7 @@
         <v>59</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F355" s="4">
         <v>26</v>
@@ -37467,7 +37467,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>31</v>
@@ -37565,10 +37565,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>38</v>
@@ -37663,10 +37663,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>41</v>
@@ -37761,7 +37761,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>31</v>
@@ -37859,13 +37859,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E360" s="4" t="s">
         <v>67</v>
@@ -37957,7 +37957,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>31</v>
@@ -38055,7 +38055,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>31</v>
@@ -38153,7 +38153,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>31</v>
@@ -38251,7 +38251,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>31</v>
@@ -38349,7 +38349,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>31</v>
@@ -38447,10 +38447,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>59</v>
@@ -38545,7 +38545,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>31</v>
@@ -38643,7 +38643,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>31</v>
@@ -38741,10 +38741,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>91</v>
@@ -38839,7 +38839,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>31</v>
@@ -38937,7 +38937,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>31</v>
@@ -39035,7 +39035,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>72</v>
@@ -39133,7 +39133,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>69</v>
@@ -39231,7 +39231,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>31</v>
@@ -39329,7 +39329,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>87</v>
@@ -39427,7 +39427,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>31</v>
@@ -39525,13 +39525,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>94</v>
@@ -39623,10 +39623,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>59</v>
@@ -39721,7 +39721,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>79</v>
@@ -39819,10 +39819,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>59</v>
@@ -39917,7 +39917,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>118</v>
@@ -40015,7 +40015,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>31</v>
@@ -40024,7 +40024,7 @@
         <v>61</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F382" s="4">
         <v>18</v>
@@ -40113,7 +40113,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>31</v>
@@ -40211,7 +40211,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>31</v>
@@ -40220,7 +40220,7 @@
         <v>61</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F384" s="4">
         <v>18</v>
@@ -40309,7 +40309,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>77</v>
@@ -40407,7 +40407,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>31</v>
@@ -40505,7 +40505,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>31</v>
@@ -40603,13 +40603,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>94</v>
@@ -40701,16 +40701,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F389" s="4">
         <v>25</v>
@@ -40799,7 +40799,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>31</v>
@@ -40895,7 +40895,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>31</v>
@@ -40993,7 +40993,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>31</v>
@@ -41091,7 +41091,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>31</v>
@@ -41189,10 +41189,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>32</v>
@@ -41285,7 +41285,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>31</v>
@@ -41383,7 +41383,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>31</v>
@@ -41481,10 +41481,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>38</v>
@@ -41579,7 +41579,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>31</v>
@@ -41677,7 +41677,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>31</v>
@@ -41773,7 +41773,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>31</v>
@@ -41871,7 +41871,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>31</v>
@@ -41969,7 +41969,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>31</v>
@@ -42067,13 +42067,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>102</v>
@@ -42165,7 +42165,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>31</v>
@@ -42261,7 +42261,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>31</v>
@@ -42359,10 +42359,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>38</v>
@@ -42457,7 +42457,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>118</v>
@@ -42555,7 +42555,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>114</v>
@@ -42653,10 +42653,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>61</v>
@@ -42751,7 +42751,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>31</v>
@@ -42849,7 +42849,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>31</v>
@@ -42947,7 +42947,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>64</v>
@@ -43045,7 +43045,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>69</v>
@@ -43143,7 +43143,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>31</v>
@@ -43239,10 +43239,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>59</v>
@@ -43337,7 +43337,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>31</v>
@@ -43435,10 +43435,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>91</v>
@@ -43533,7 +43533,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>31</v>
@@ -43631,10 +43631,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>59</v>
@@ -43729,7 +43729,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>31</v>
@@ -43827,7 +43827,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>31</v>
@@ -43925,7 +43925,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>31</v>
@@ -44023,7 +44023,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>31</v>
@@ -44121,13 +44121,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>42</v>
@@ -44217,7 +44217,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>31</v>
@@ -44315,7 +44315,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>72</v>
@@ -44411,13 +44411,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>70</v>
@@ -44509,7 +44509,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>72</v>
@@ -44607,7 +44607,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>31</v>
@@ -44703,10 +44703,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C430" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>91</v>
@@ -44801,7 +44801,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>31</v>
@@ -44899,10 +44899,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>38</v>
@@ -44995,7 +44995,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>114</v>
@@ -45093,7 +45093,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>31</v>
@@ -45189,7 +45189,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>31</v>
@@ -45287,7 +45287,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>31</v>
@@ -45296,7 +45296,7 @@
         <v>61</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F436" s="4">
         <v>24</v>
@@ -45385,7 +45385,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>31</v>
@@ -45483,10 +45483,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>59</v>
@@ -45581,7 +45581,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45679,7 +45679,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>31</v>
@@ -45777,7 +45777,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>31</v>
@@ -45875,7 +45875,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>31</v>
@@ -45884,7 +45884,7 @@
         <v>59</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F442" s="4">
         <v>22</v>
@@ -45973,7 +45973,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>31</v>
@@ -46071,7 +46071,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>31</v>
@@ -46169,7 +46169,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>31</v>
@@ -46267,7 +46267,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>31</v>
@@ -46363,7 +46363,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>77</v>
@@ -46459,7 +46459,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>72</v>
@@ -46557,7 +46557,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>31</v>
@@ -46653,7 +46653,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>31</v>
@@ -46662,7 +46662,7 @@
         <v>32</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F450" s="4">
         <v>22</v>
@@ -46749,7 +46749,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>31</v>
@@ -46845,7 +46845,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>69</v>
@@ -46943,7 +46943,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>31</v>
@@ -47041,7 +47041,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>31</v>
@@ -47139,7 +47139,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>31</v>
@@ -47237,7 +47237,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>31</v>
@@ -47335,7 +47335,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>31</v>
@@ -47433,7 +47433,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>31</v>
@@ -47627,7 +47627,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>31</v>
@@ -47723,7 +47723,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>31</v>
@@ -47821,7 +47821,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>77</v>
@@ -47919,13 +47919,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>70</v>
@@ -48017,7 +48017,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>31</v>
@@ -48115,7 +48115,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>31</v>
@@ -48124,7 +48124,7 @@
         <v>38</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F465" s="4">
         <v>21</v>
@@ -48211,10 +48211,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>41</v>
@@ -48309,7 +48309,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>31</v>
@@ -48407,7 +48407,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>31</v>
@@ -48416,7 +48416,7 @@
         <v>38</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F468" s="4">
         <v>24</v>
@@ -48505,7 +48505,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48603,7 +48603,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>31</v>
@@ -48701,7 +48701,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>118</v>
@@ -48797,7 +48797,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>79</v>
@@ -48895,10 +48895,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>59</v>
@@ -48993,7 +48993,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49091,10 +49091,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>61</v>
@@ -49189,7 +49189,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>79</v>
@@ -49287,7 +49287,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>31</v>
@@ -49385,7 +49385,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>31</v>
@@ -49481,7 +49481,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>31</v>
@@ -49490,7 +49490,7 @@
         <v>61</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F479" s="4">
         <v>21</v>
@@ -49579,10 +49579,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>38</v>
@@ -49675,7 +49675,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>31</v>
@@ -49773,7 +49773,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>31</v>
@@ -49869,7 +49869,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>79</v>
@@ -49965,7 +49965,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -50061,7 +50061,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>31</v>
@@ -50157,7 +50157,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>31</v>
@@ -50255,7 +50255,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>31</v>
@@ -50351,7 +50351,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>31</v>
@@ -50449,7 +50449,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>31</v>
@@ -50547,7 +50547,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50645,7 +50645,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>72</v>
@@ -50743,7 +50743,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>79</v>
@@ -50841,7 +50841,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>31</v>
@@ -50939,16 +50939,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F494" s="4">
         <v>19</v>
@@ -51037,7 +51037,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51135,7 +51135,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>31</v>
@@ -51233,7 +51233,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>69</v>
@@ -51331,7 +51331,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>31</v>
@@ -51429,7 +51429,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>31</v>
@@ -51527,7 +51527,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>31</v>
@@ -51536,7 +51536,7 @@
         <v>41</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F500" s="4">
         <v>18</v>
